--- a/Result_of_estimation.xlsx
+++ b/Result_of_estimation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeli/PycharmProjects/untitled/Final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B69ACCD-7D5B-7D4A-98ED-585F69E95FAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D99AAB-4C2D-0D42-B5FE-5E447CBDAF53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="500" windowWidth="33600" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5098,19 +5098,19 @@
     <t>Zlatan Ibrahimovic</t>
   </si>
   <si>
-    <t>Mix_result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RF_result</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mix_Pred</t>
+    <t>RF_Pred</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RF_Pred</t>
+    <t>Mixed_result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed_Pred</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5486,10 +5486,15 @@
   <dimension ref="A1:G1685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -5499,16 +5504,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1692</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1693</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
